--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/S设施列表_Buildings_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/S设施列表_Buildings_hotfix.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32B5A83-ABFA-4BD4-9C65-16E9A70190C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="2" r:id="rId4"/>
+    <sheet name="main" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="842">
   <si>
     <t>设施ID_BuildingID</t>
   </si>
@@ -37,9 +43,6 @@
     <t>小型农庄</t>
   </si>
   <si>
-    <t>Small Farm</t>
-  </si>
-  <si>
     <t>每周可以产生少量食物。</t>
   </si>
   <si>
@@ -52,9 +55,6 @@
     <t>农庄</t>
   </si>
   <si>
-    <t>Farm</t>
-  </si>
-  <si>
     <t>每周可以产生较多食物。</t>
   </si>
   <si>
@@ -67,9 +67,6 @@
     <t>大型农庄</t>
   </si>
   <si>
-    <t>Large Farm</t>
-  </si>
-  <si>
     <t>每周可以产生大量食物。</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>破旧兽栏</t>
   </si>
   <si>
-    <t>Shabby Kennels</t>
-  </si>
-  <si>
     <t>将野兽放入兽栏里接受训练，训练后野兽会取得经验值，经验的数量随着兽栏等级提升而增加。</t>
   </si>
   <si>
@@ -97,18 +91,12 @@
     <t>坚固兽栏</t>
   </si>
   <si>
-    <t>Menagerie</t>
-  </si>
-  <si>
     <t>建设MOD雇佣兵营</t>
   </si>
   <si>
     <t>雇佣兵营</t>
   </si>
   <si>
-    <t>Mercenary Camp</t>
-  </si>
-  <si>
     <t>雇佣兵营允许你在此招募雇佣军。</t>
   </si>
   <si>
@@ -121,9 +109,6 @@
     <t>雇佣兵行会</t>
   </si>
   <si>
-    <t>Mercenaries Guild</t>
-  </si>
-  <si>
     <t>雇佣兵营允许你在此招募雇佣军，价钱是正常价的2/3。</t>
   </si>
   <si>
@@ -136,9 +121,6 @@
     <t>铁匠铺</t>
   </si>
   <si>
-    <t>Blacksmith</t>
-  </si>
-  <si>
     <t>可以维修一件1-7级的装备。</t>
   </si>
   <si>
@@ -151,9 +133,6 @@
     <t>锻造所</t>
   </si>
   <si>
-    <t>Forge</t>
-  </si>
-  <si>
     <t>可以维修一件1-12级的装备。</t>
   </si>
   <si>
@@ -166,9 +145,6 @@
     <t>高级锻造所</t>
   </si>
   <si>
-    <t>Elite Forge</t>
-  </si>
-  <si>
     <t>可以维修一件任意等级的装备，并可以招募弩砲。</t>
   </si>
   <si>
@@ -181,9 +157,6 @@
     <t>木质哨岗</t>
   </si>
   <si>
-    <t>Wooden Sentry</t>
-  </si>
-  <si>
     <t>哨塔可以提供一支常规巡逻队在无名部落附近巡逻。</t>
   </si>
   <si>
@@ -196,9 +169,6 @@
     <t>坚固哨岗</t>
   </si>
   <si>
-    <t>Solid Sentry</t>
-  </si>
-  <si>
     <t>哨塔可以提供一支大型巡逻队在无名部落附近巡逻。</t>
   </si>
   <si>
@@ -211,9 +181,6 @@
     <t>塔楼</t>
   </si>
   <si>
-    <t>Watchtower</t>
-  </si>
-  <si>
     <t>哨塔可以提供一支精英巡逻队在无名部落附近巡逻。</t>
   </si>
   <si>
@@ -226,9 +193,6 @@
     <t>巫术传送门</t>
   </si>
   <si>
-    <t>Arcane Portal</t>
-  </si>
-  <si>
     <t>巫术传送门可以让你前往大漠的任意一个非敌对的城市。</t>
   </si>
   <si>
@@ -241,9 +205,6 @@
     <t>铠甲工坊</t>
   </si>
   <si>
-    <t>Armory</t>
-  </si>
-  <si>
     <t>访问该建筑物队伍里的士兵可以获得防御力增加30%的状态，持续七天。</t>
   </si>
   <si>
@@ -256,9 +217,6 @@
     <t>大型铠甲工坊</t>
   </si>
   <si>
-    <t>Large Armory</t>
-  </si>
-  <si>
     <t>访问该建筑物队伍里的士兵可以获得防御力增加30%的状态，持续十天。</t>
   </si>
   <si>
@@ -286,9 +244,6 @@
     <t>大型武器库</t>
   </si>
   <si>
-    <t>Royal Arsenal</t>
-  </si>
-  <si>
     <t>访问该建筑物队伍里的士兵可以获得攻击力增加30%的状态，持续十天。</t>
   </si>
   <si>
@@ -301,9 +256,6 @@
     <t>茅草马厩</t>
   </si>
   <si>
-    <t>Cottage Stables</t>
-  </si>
-  <si>
     <t>访问该建筑物可以获得全局移动速度加快的状态，持续两天。</t>
   </si>
   <si>
@@ -316,9 +268,6 @@
     <t>骑手马厩</t>
   </si>
   <si>
-    <t>Riding Stables</t>
-  </si>
-  <si>
     <t>访问该建筑物可以获得全局移动速度加快的状态，持续三天。</t>
   </si>
   <si>
@@ -331,9 +280,6 @@
     <t>领主马厩</t>
   </si>
   <si>
-    <t>Sultan's Stables</t>
-  </si>
-  <si>
     <t>访问该建筑物可以获得全局移动速度加快的状态，持续五天。</t>
   </si>
   <si>
@@ -346,9 +292,6 @@
     <t>小型住房</t>
   </si>
   <si>
-    <t>Small House</t>
-  </si>
-  <si>
     <t>增加五个人口上限</t>
   </si>
   <si>
@@ -361,9 +304,6 @@
     <t>改良小型住房</t>
   </si>
   <si>
-    <t>Renovated House</t>
-  </si>
-  <si>
     <t>增加十个人口上限</t>
   </si>
   <si>
@@ -376,9 +316,6 @@
     <t>中型住房</t>
   </si>
   <si>
-    <t>Medium Domicile</t>
-  </si>
-  <si>
     <t>增加十五个人口上限</t>
   </si>
   <si>
@@ -391,9 +328,6 @@
     <t>大型住房</t>
   </si>
   <si>
-    <t>Large Residence</t>
-  </si>
-  <si>
     <t>增加二十五个人口上限</t>
   </si>
   <si>
@@ -406,9 +340,6 @@
     <t>采玉营地</t>
   </si>
   <si>
-    <t>Jade Camp</t>
-  </si>
-  <si>
     <t>占用5人口，每周产出5单位玉石并增加繁荣度</t>
   </si>
   <si>
@@ -421,9 +352,6 @@
     <t>采玉小屋</t>
   </si>
   <si>
-    <t>Jade Cabin</t>
-  </si>
-  <si>
     <t>占用15人口，每周产出15单位玉石并增加繁荣度</t>
   </si>
   <si>
@@ -436,9 +364,6 @@
     <t>采矿营地</t>
   </si>
   <si>
-    <t>Mining Camp</t>
-  </si>
-  <si>
     <t>占用5人口，每周产出20单位铁石</t>
   </si>
   <si>
@@ -451,9 +376,6 @@
     <t>采矿小屋</t>
   </si>
   <si>
-    <t>Mining Cabin</t>
-  </si>
-  <si>
     <t>占用15人口，每周产出50单位铁石</t>
   </si>
   <si>
@@ -466,9 +388,6 @@
     <t>伐木营地</t>
   </si>
   <si>
-    <t>Logging Camp</t>
-  </si>
-  <si>
     <t>占用5人口，每周产出20单位木材</t>
   </si>
   <si>
@@ -481,9 +400,6 @@
     <t>伐木小屋</t>
   </si>
   <si>
-    <t>Logging Cabin</t>
-  </si>
-  <si>
     <t>占用15人口，每周产出50单位木材</t>
   </si>
   <si>
@@ -496,9 +412,6 @@
     <t>贸易站</t>
   </si>
   <si>
-    <t>Trading Post</t>
-  </si>
-  <si>
     <t>建成后，10单位人口将继续在此工作，拥有一支商队</t>
   </si>
   <si>
@@ -511,9 +424,6 @@
     <t>大型贸易站</t>
   </si>
   <si>
-    <t>Trading Depot</t>
-  </si>
-  <si>
     <t>建成后，15单位人口将继续在此工作，拥有两支商队</t>
   </si>
   <si>
@@ -526,9 +436,6 @@
     <t>贸易集市</t>
   </si>
   <si>
-    <t>Trade Bazaar</t>
-  </si>
-  <si>
     <t>建成后，30单位人口将继续在此工作，拥有三支商队</t>
   </si>
   <si>
@@ -541,9 +448,6 @@
     <t>甘甜之泉</t>
   </si>
   <si>
-    <t>Sweetwater Springs</t>
-  </si>
-  <si>
     <t>可在此获得队伍临时增益：战场恢复（一层），战斗中全体每秒恢复5点生命</t>
   </si>
   <si>
@@ -556,9 +460,6 @@
     <t>自然之屋</t>
   </si>
   <si>
-    <t>Nature's Hearth</t>
-  </si>
-  <si>
     <t>可在此获得队伍临时增益：战场恢复（二层）</t>
   </si>
   <si>
@@ -571,9 +472,6 @@
     <t>流泉高塔</t>
   </si>
   <si>
-    <t>Wellspring Spire</t>
-  </si>
-  <si>
     <t>可在此获得队伍临时增益：战场恢复（三层）</t>
   </si>
   <si>
@@ -586,9 +484,6 @@
     <t>火焰之柱</t>
   </si>
   <si>
-    <t>Pillar of Fire</t>
-  </si>
-  <si>
     <t>可在此获得队伍临时增益：战场攻击强化（一层）</t>
   </si>
   <si>
@@ -601,9 +496,6 @@
     <t>遗迹幻境</t>
   </si>
   <si>
-    <t>Shattered Ruins</t>
-  </si>
-  <si>
     <t>一个古代的遗迹。传说中可以让进入者沉睡进入巫师的幻境，如果击败幻境中的怪物，可以发现许多稀有的战利品！</t>
   </si>
   <si>
@@ -616,9 +508,6 @@
     <t>蝎族村民军营</t>
   </si>
   <si>
-    <t>Dakn Villager Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:蝎族村民]]</t>
   </si>
   <si>
@@ -631,9 +520,6 @@
     <t>蝎族密探军营</t>
   </si>
   <si>
-    <t>Dakn Spy Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:蝎族密探]]</t>
   </si>
   <si>
@@ -646,9 +532,6 @@
     <t>蝎族刺客军营</t>
   </si>
   <si>
-    <t>Dakn Assassin Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:蝎族刺客]]</t>
   </si>
   <si>
@@ -661,9 +544,6 @@
     <t>蝎族精英刺客军营</t>
   </si>
   <si>
-    <t>Elite Dakn Assassin Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:蝎族精英刺客]]</t>
   </si>
   <si>
@@ -676,9 +556,6 @@
     <t>蝎族暗杀者军营</t>
   </si>
   <si>
-    <t>Dakn Slayer Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:蝎族暗杀者]]</t>
   </si>
   <si>
@@ -691,9 +568,6 @@
     <t>蝎族暗杀大师军营</t>
   </si>
   <si>
-    <t>Dakn Master Slayer Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:蝎族暗杀大师]]</t>
   </si>
   <si>
@@ -706,9 +580,6 @@
     <t>蝎族祭司学徒军营</t>
   </si>
   <si>
-    <t>Dakn Initiate Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:蝎族祭司学徒]]</t>
   </si>
   <si>
@@ -721,9 +592,6 @@
     <t>蝎族祭司军营</t>
   </si>
   <si>
-    <t>Dakn Priest Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:蝎族祭司]]</t>
   </si>
   <si>
@@ -736,9 +604,6 @@
     <t>蝎族高阶祭司军营</t>
   </si>
   <si>
-    <t>Dakn High Priest Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:蝎族高阶祭司]]</t>
   </si>
   <si>
@@ -751,9 +616,6 @@
     <t>蝎族长老军营</t>
   </si>
   <si>
-    <t>Dakn Elder Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:蝎族长老]]</t>
   </si>
   <si>
@@ -766,9 +628,6 @@
     <t>蝎族少女军营</t>
   </si>
   <si>
-    <t>Dakn Youngster Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:蝎族少女]]</t>
   </si>
   <si>
@@ -781,9 +640,6 @@
     <t>蝎族炼药师学徒军营</t>
   </si>
   <si>
-    <t>Dakn Alchemy Apprentice Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:蝎族炼药师学徒]]</t>
   </si>
   <si>
@@ -796,9 +652,6 @@
     <t>蝎族炼药师军营</t>
   </si>
   <si>
-    <t>Dakn Alchemist Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:蝎族炼药师]]</t>
   </si>
   <si>
@@ -811,9 +664,6 @@
     <t>蝎族女使徒军营</t>
   </si>
   <si>
-    <t>Dakn Apostle Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:蝎族女使徒]]</t>
   </si>
   <si>
@@ -826,9 +676,6 @@
     <t>蝎族女祭司军营</t>
   </si>
   <si>
-    <t>Dakn Priestess Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:蝎族女祭司]]</t>
   </si>
   <si>
@@ -841,9 +688,6 @@
     <t>蝎族高阶女祭司军营</t>
   </si>
   <si>
-    <t>Dakn High Priestess Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:蝎族高阶女祭司]]</t>
   </si>
   <si>
@@ -856,9 +700,6 @@
     <t>蝎族女刺客军营</t>
   </si>
   <si>
-    <t>Dakn Black Widow Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:蝎族女刺客]]</t>
   </si>
   <si>
@@ -871,9 +712,6 @@
     <t>蝎族女精英刺客军营</t>
   </si>
   <si>
-    <t>Elite Dakn Black Widow Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:蝎族女精英刺客]]</t>
   </si>
   <si>
@@ -886,9 +724,6 @@
     <t>雄鹰民夫军营</t>
   </si>
   <si>
-    <t>Nasir Farmer Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:雄鹰民夫]]</t>
   </si>
   <si>
@@ -901,9 +736,6 @@
     <t>雄鹰民兵军营</t>
   </si>
   <si>
-    <t>Nasir Militia Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:雄鹰民兵]]</t>
   </si>
   <si>
@@ -916,9 +748,6 @@
     <t>雄鹰弩手军营</t>
   </si>
   <si>
-    <t>Nasir Crossbowman Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雄鹰弩手]]</t>
   </si>
   <si>
@@ -931,9 +760,6 @@
     <t>雄鹰精英弩手军营</t>
   </si>
   <si>
-    <t>Elite Nasir Crossbowman Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雄鹰精英弩手]]</t>
   </si>
   <si>
@@ -946,9 +772,6 @@
     <t>雄鹰神臂弩手军营</t>
   </si>
   <si>
-    <t>Nasir Ace Crossbowman Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:雄鹰神臂弩手]]</t>
   </si>
   <si>
@@ -961,9 +784,6 @@
     <t>雄鹰学徒军营</t>
   </si>
   <si>
-    <t>Nasir Apprentice Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:雄鹰学徒]]</t>
   </si>
   <si>
@@ -976,9 +796,6 @@
     <t>雄鹰见习施法者军营</t>
   </si>
   <si>
-    <t>Nasir Novice Caster Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:雄鹰见习施法者]]</t>
   </si>
   <si>
@@ -991,9 +808,6 @@
     <t>雄鹰施法者军营</t>
   </si>
   <si>
-    <t>Nasir Caster Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雄鹰施法者]]</t>
   </si>
   <si>
@@ -1006,9 +820,6 @@
     <t>雄鹰巫师军营</t>
   </si>
   <si>
-    <t>Nasir Wizard Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雄鹰巫师]]</t>
   </si>
   <si>
@@ -1021,9 +832,6 @@
     <t>雄鹰高阶巫师军营</t>
   </si>
   <si>
-    <t>Nasir High Wizard Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:雄鹰高阶巫师]]</t>
   </si>
   <si>
@@ -1036,9 +844,6 @@
     <t>雄鹰秘法长老军营</t>
   </si>
   <si>
-    <t>Nasir Mystic Elder Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:雄鹰秘法长老]]</t>
   </si>
   <si>
@@ -1051,9 +856,6 @@
     <t>雄鹰治疗巫师军营</t>
   </si>
   <si>
-    <t>Nasir Healer Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:雄鹰治疗巫师]]</t>
   </si>
   <si>
@@ -1066,9 +868,6 @@
     <t>雄鹰高阶医者军营</t>
   </si>
   <si>
-    <t>Nasir Cleric Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:雄鹰高阶医者]]</t>
   </si>
   <si>
@@ -1081,9 +880,6 @@
     <t>雄鹰步兵军营</t>
   </si>
   <si>
-    <t>Nasir Infantry Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雄鹰步兵]]</t>
   </si>
   <si>
@@ -1096,9 +892,6 @@
     <t>雄鹰精锐枪兵军营</t>
   </si>
   <si>
-    <t>Elite Nasir Spearman Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雄鹰精锐枪兵]]</t>
   </si>
   <si>
@@ -1111,9 +904,6 @@
     <t>雄鹰重装枪兵军营</t>
   </si>
   <si>
-    <t>Nasir Heavy Spearman Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雄鹰重装枪兵]]</t>
   </si>
   <si>
@@ -1126,9 +916,6 @@
     <t>雄鹰亲卫枪兵军营</t>
   </si>
   <si>
-    <t>Nasir Lancer Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:雄鹰亲卫枪兵]]</t>
   </si>
   <si>
@@ -1141,9 +928,6 @@
     <t>雄鹰盾卫军营</t>
   </si>
   <si>
-    <t>Nasir Gallant Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雄鹰盾卫]]</t>
   </si>
   <si>
@@ -1156,9 +940,6 @@
     <t>雄鹰重装盾卫军营</t>
   </si>
   <si>
-    <t>Nasir Heavy Gallant Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雄鹰重装盾卫]]</t>
   </si>
   <si>
@@ -1171,9 +952,6 @@
     <t>雄鹰骑手军营</t>
   </si>
   <si>
-    <t>Nasir Rider Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:雄鹰骑手]]</t>
   </si>
   <si>
@@ -1186,9 +964,6 @@
     <t>雄鹰重骑兵军营</t>
   </si>
   <si>
-    <t>Nasir Heavy Cavalry Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:雄鹰重骑兵]]</t>
   </si>
   <si>
@@ -1201,9 +976,6 @@
     <t>雄鹰亲卫骑兵军营</t>
   </si>
   <si>
-    <t>Nasir Guard Cavalry Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:雄鹰亲卫骑兵]]</t>
   </si>
   <si>
@@ -1216,9 +988,6 @@
     <t>蛮牛族人军营</t>
   </si>
   <si>
-    <t>Thur Commoner Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:蛮牛族人]]</t>
   </si>
   <si>
@@ -1231,9 +1000,6 @@
     <t>蛮牛壮士军营</t>
   </si>
   <si>
-    <t>Thur Hero Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:蛮牛壮士]]</t>
   </si>
   <si>
@@ -1246,9 +1012,6 @@
     <t>蛮牛勇士军营</t>
   </si>
   <si>
-    <t>Thur Warrior Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:蛮牛勇士]]</t>
   </si>
   <si>
@@ -1261,9 +1024,6 @@
     <t>蛮牛刀手军营</t>
   </si>
   <si>
-    <t>Thur Skirmisher Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:蛮牛刀手]]</t>
   </si>
   <si>
@@ -1276,9 +1036,6 @@
     <t>蛮牛重步兵军营</t>
   </si>
   <si>
-    <t>Thur Heavy Infantry Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:蛮牛重步兵]]</t>
   </si>
   <si>
@@ -1291,9 +1048,6 @@
     <t>蛮牛铁甲步兵军营</t>
   </si>
   <si>
-    <t>Thur Armored Infantry Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:蛮牛铁甲步兵]]</t>
   </si>
   <si>
@@ -1306,9 +1060,6 @@
     <t>蛮牛精锐铁甲军士军营</t>
   </si>
   <si>
-    <t>Elite Thur Sergeant Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:蛮牛精锐铁甲军士]]</t>
   </si>
   <si>
@@ -1321,9 +1072,6 @@
     <t>蛮牛掠夺者军营</t>
   </si>
   <si>
-    <t>Thur Marauder Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:蛮牛掠夺者]]</t>
   </si>
   <si>
@@ -1336,9 +1084,6 @@
     <t>蛮牛武装掠夺者军营</t>
   </si>
   <si>
-    <t>Thur Armed Marauder Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:蛮牛武装掠夺者]]</t>
   </si>
   <si>
@@ -1351,9 +1096,6 @@
     <t>蛮牛狂暴战士军营</t>
   </si>
   <si>
-    <t>Thur Berserker Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:蛮牛狂暴战士]]</t>
   </si>
   <si>
@@ -1366,9 +1108,6 @@
     <t>蛮牛战神军营</t>
   </si>
   <si>
-    <t>Thur Warmonger Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:蛮牛战神]]</t>
   </si>
   <si>
@@ -1381,9 +1120,6 @@
     <t>蛮牛猎手军营</t>
   </si>
   <si>
-    <t>Thur Hunter Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:蛮牛猎手]]</t>
   </si>
   <si>
@@ -1396,9 +1132,6 @@
     <t>蛮牛弓箭手军营</t>
   </si>
   <si>
-    <t>Thur Archer Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:蛮牛弓箭手]]</t>
   </si>
   <si>
@@ -1426,9 +1159,6 @@
     <t>蛮牛铁甲神射手军营</t>
   </si>
   <si>
-    <t>Thur Armored Marksman Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:蛮牛铁甲神射手]]</t>
   </si>
   <si>
@@ -1441,9 +1171,6 @@
     <t>雪岭农夫军营</t>
   </si>
   <si>
-    <t>Dhib Farmer Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:雪岭农夫]]</t>
   </si>
   <si>
@@ -1456,9 +1183,6 @@
     <t>雪岭牧民军营</t>
   </si>
   <si>
-    <t>Dhib Herder Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:雪岭牧民]]</t>
   </si>
   <si>
@@ -1471,9 +1195,6 @@
     <t>雪岭壮士军营</t>
   </si>
   <si>
-    <t>Dhib Hero Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:雪岭壮士]]</t>
   </si>
   <si>
@@ -1486,9 +1207,6 @@
     <t>雪岭灰袍军军营</t>
   </si>
   <si>
-    <t>Dhib Ashen Soldier Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雪岭灰袍军]]</t>
   </si>
   <si>
@@ -1501,9 +1219,6 @@
     <t>雪岭灰袍铠卫军营</t>
   </si>
   <si>
-    <t>Dhib Ashen Knight Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雪岭灰袍铠卫]]</t>
   </si>
   <si>
@@ -1516,9 +1231,6 @@
     <t>雪岭灰袍铠甲武士军营</t>
   </si>
   <si>
-    <t>Dhib Ashen Swordsman Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:雪岭灰袍铠甲武士]]</t>
   </si>
   <si>
@@ -1531,9 +1243,6 @@
     <t>雪岭勇士军营</t>
   </si>
   <si>
-    <t>Dhib Warrior Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雪岭勇士]]</t>
   </si>
   <si>
@@ -1546,9 +1255,6 @@
     <t>雪岭精英勇士军营</t>
   </si>
   <si>
-    <t>Elite Dhib Warrior Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雪岭精英勇士]]</t>
   </si>
   <si>
@@ -1561,9 +1267,6 @@
     <t>雪岭剑术大师军营</t>
   </si>
   <si>
-    <t>Dhib Swordmaster Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:雪岭剑术大师]]</t>
   </si>
   <si>
@@ -1576,9 +1279,6 @@
     <t>雪岭剑豪军营</t>
   </si>
   <si>
-    <t>Dhib Swordsman Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:雪岭剑豪]]</t>
   </si>
   <si>
@@ -1591,9 +1291,6 @@
     <t>雪岭猎人军营</t>
   </si>
   <si>
-    <t>Dhib Hunter Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:雪岭猎人]]</t>
   </si>
   <si>
@@ -1606,9 +1303,6 @@
     <t>雪岭追击者军营</t>
   </si>
   <si>
-    <t>Dhib Tracker Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:雪岭追击者]]</t>
   </si>
   <si>
@@ -1621,9 +1315,6 @@
     <t>雪岭驯兽师军营</t>
   </si>
   <si>
-    <t>Dhib Tamer Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雪岭驯兽师]]</t>
   </si>
   <si>
@@ -1636,9 +1327,6 @@
     <t>雪岭精英驯兽师军营</t>
   </si>
   <si>
-    <t>Elite Dhib Beast Trainer Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:雪岭精英驯兽师]]</t>
   </si>
   <si>
@@ -1651,9 +1339,6 @@
     <t>雪岭驯鹰师军营</t>
   </si>
   <si>
-    <t>Dhib Falconer Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:雪岭驯鹰师]]</t>
   </si>
   <si>
@@ -1666,9 +1351,6 @@
     <t>雪岭兽王军营</t>
   </si>
   <si>
-    <t>Dhib Beastmaster Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:雪岭兽王]]</t>
   </si>
   <si>
@@ -1681,9 +1363,6 @@
     <t>荒沙住民军营</t>
   </si>
   <si>
-    <t>Akhal Dweller Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:荒沙住民]]</t>
   </si>
   <si>
@@ -1696,9 +1375,6 @@
     <t>荒沙刀客军营</t>
   </si>
   <si>
-    <t>Akhal Swordsman Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:荒沙刀客]]</t>
   </si>
   <si>
@@ -1711,9 +1387,6 @@
     <t>荒沙武士军营</t>
   </si>
   <si>
-    <t>Akhal Warrior Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:荒沙武士]]</t>
   </si>
   <si>
@@ -1726,9 +1399,6 @@
     <t>荒沙精英武士军营</t>
   </si>
   <si>
-    <t>Elite Akhal Warrior Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:荒沙精英武士]]</t>
   </si>
   <si>
@@ -1741,9 +1411,6 @@
     <t>荒沙风暴武士军营</t>
   </si>
   <si>
-    <t>Akhal Storm Warrior Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:荒沙风暴武士]]</t>
   </si>
   <si>
@@ -1756,9 +1423,6 @@
     <t>荒沙骆驼骑兵军营</t>
   </si>
   <si>
-    <t>Akhal Camel Cavalry Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:荒沙骆驼骑兵]]</t>
   </si>
   <si>
@@ -1771,9 +1435,6 @@
     <t>荒沙精英骆驼骑兵军营</t>
   </si>
   <si>
-    <t>Elite Akhal Camel Cavalry Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:荒沙精英骆驼骑兵]]</t>
   </si>
   <si>
@@ -1786,9 +1447,6 @@
     <t>荒沙镖手军营</t>
   </si>
   <si>
-    <t>Akhal Trickster Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:荒沙镖手]]</t>
   </si>
   <si>
@@ -1801,9 +1459,6 @@
     <t>荒沙枪骑军营</t>
   </si>
   <si>
-    <t>Akhal Rider Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:荒沙枪骑]]</t>
   </si>
   <si>
@@ -1816,9 +1471,6 @@
     <t>荒沙精锐枪骑军营</t>
   </si>
   <si>
-    <t>Elite Akhal Rider Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:荒沙精锐枪骑]]</t>
   </si>
   <si>
@@ -1831,9 +1483,6 @@
     <t>荒沙重骑兵军营</t>
   </si>
   <si>
-    <t>Akhal Heavy Cavalry Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:荒沙重骑兵]]</t>
   </si>
   <si>
@@ -1846,9 +1495,6 @@
     <t>荒沙精英重骑兵军营</t>
   </si>
   <si>
-    <t>Elite Akhal Heavy Cavalry Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:荒沙精英重骑兵]]</t>
   </si>
   <si>
@@ -1861,9 +1507,6 @@
     <t>荒沙风暴骑兵军营</t>
   </si>
   <si>
-    <t>Akhal Storm Cavalry Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:荒沙风暴骑兵]]</t>
   </si>
   <si>
@@ -1876,9 +1519,6 @@
     <t>荒沙弓骑军营</t>
   </si>
   <si>
-    <t>Akhal Archrider Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:荒沙弓骑]]</t>
   </si>
   <si>
@@ -1891,9 +1531,6 @@
     <t>荒沙精锐弓骑军营</t>
   </si>
   <si>
-    <t>Elite Akhal Archrider Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:荒沙精锐弓骑]]</t>
   </si>
   <si>
@@ -1906,9 +1543,6 @@
     <t>荒沙重甲弓骑军营</t>
   </si>
   <si>
-    <t>Akhal Heavy Archrider Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:荒沙重甲弓骑]]</t>
   </si>
   <si>
@@ -1921,9 +1555,6 @@
     <t>荒沙萨满学徒军营</t>
   </si>
   <si>
-    <t>Akhal Shaman Disciple Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:荒沙萨满学徒]]</t>
   </si>
   <si>
@@ -1936,9 +1567,6 @@
     <t>荒沙萨满军营</t>
   </si>
   <si>
-    <t>Akhal Shaman Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:荒沙萨满]]</t>
   </si>
   <si>
@@ -1951,9 +1579,6 @@
     <t>荒沙精英萨满军营</t>
   </si>
   <si>
-    <t>Elite Akhal Shaman Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:荒沙精英萨满]]</t>
   </si>
   <si>
@@ -1966,9 +1591,6 @@
     <t>荒沙先知军营</t>
   </si>
   <si>
-    <t>Akhal Prophet Camp</t>
-  </si>
-  <si>
     <t>占用50人口,允许招募[[imp:荒沙先知]]</t>
   </si>
   <si>
@@ -1981,9 +1603,6 @@
     <t>荒沙献祭者军营</t>
   </si>
   <si>
-    <t>Akhal Cleric Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:荒沙献祭者]]</t>
   </si>
   <si>
@@ -1993,9 +1612,6 @@
     <t>部落帐篷</t>
   </si>
   <si>
-    <t>Tribal Tent</t>
-  </si>
-  <si>
     <t>行政中心，每周产出资源。可以招募势力的基础士兵。</t>
   </si>
   <si>
@@ -2008,24 +1624,15 @@
     <t>部落聚落</t>
   </si>
   <si>
-    <t>Tribal Outpost</t>
-  </si>
-  <si>
     <t>部落堡垒</t>
   </si>
   <si>
-    <t>Tribal Fortress</t>
-  </si>
-  <si>
     <t>建设MOD图书馆</t>
   </si>
   <si>
     <t>图书馆</t>
   </si>
   <si>
-    <t>Library</t>
-  </si>
-  <si>
     <t>占用20人口，可以在此学习一些简单的古代机械术。</t>
   </si>
   <si>
@@ -2038,9 +1645,6 @@
     <t>神秘图书馆</t>
   </si>
   <si>
-    <t>Secret Library</t>
-  </si>
-  <si>
     <t>占用30人口，可以在此学习一些更高级的古代机械术。</t>
   </si>
   <si>
@@ -2053,9 +1657,6 @@
     <t>古代图书馆</t>
   </si>
   <si>
-    <t>Ancient Library</t>
-  </si>
-  <si>
     <t>占用40人口，可以在此学习一些更高级的古代机械术。</t>
   </si>
   <si>
@@ -2077,9 +1678,6 @@
     <t>雄鹰重铠兵军营</t>
   </si>
   <si>
-    <t>Nasir Heavy Infantry Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雄鹰重铠兵]]。</t>
   </si>
   <si>
@@ -2092,9 +1690,6 @@
     <t>雄鹰长枪兵军营</t>
   </si>
   <si>
-    <t>Nasir Longspearman Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:雄鹰长枪兵]]。</t>
   </si>
   <si>
@@ -2107,9 +1702,6 @@
     <t>雄鹰方阵兵军营</t>
   </si>
   <si>
-    <t>Nasir Hoplite Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雄鹰方阵兵]]。</t>
   </si>
   <si>
@@ -2128,9 +1720,6 @@
     <t>雄鹰突骑兵军营</t>
   </si>
   <si>
-    <t>Nasir Assault Cavalry Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雄鹰突骑兵]]。</t>
   </si>
   <si>
@@ -2143,9 +1732,6 @@
     <t>雄鹰射手军营</t>
   </si>
   <si>
-    <t>Nasir Shooter Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:雄鹰射手]]。</t>
   </si>
   <si>
@@ -2158,9 +1744,6 @@
     <t>雄鹰疾射手军营</t>
   </si>
   <si>
-    <t>Nasir Swift Shooter Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雄鹰疾射手]]。</t>
   </si>
   <si>
@@ -2185,9 +1768,6 @@
     <t>雄鹰医药师军营</t>
   </si>
   <si>
-    <t>Nasir Herbalist Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雄鹰医药师]]。</t>
   </si>
   <si>
@@ -2212,9 +1792,6 @@
     <t>毒蝎匿踪者军营</t>
   </si>
   <si>
-    <t>Dakn Stalker Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:毒蝎匿踪者]]。</t>
   </si>
   <si>
@@ -2227,9 +1804,6 @@
     <t>毒蝎镖手军营</t>
   </si>
   <si>
-    <t>Dakn Dart Thrower Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:毒蝎镖手]]。</t>
   </si>
   <si>
@@ -2242,9 +1816,6 @@
     <t>毒蝎飞镖手军营</t>
   </si>
   <si>
-    <t>Dakn Bolt Thrower Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:毒蝎飞镖手]]。</t>
   </si>
   <si>
@@ -2257,9 +1828,6 @@
     <t>毒蝎棘枪手军营</t>
   </si>
   <si>
-    <t>Dakn Thorn Shooter Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:毒蝎棘枪手]]。</t>
   </si>
   <si>
@@ -2272,9 +1840,6 @@
     <t>毒蝎饮毒者军营</t>
   </si>
   <si>
-    <t>Dakn Poison Drinker Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:毒蝎饮毒者]]。</t>
   </si>
   <si>
@@ -2296,9 +1861,6 @@
     <t>毒蝎投毒者军营</t>
   </si>
   <si>
-    <t>Dakn Poisoner Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:毒蝎投毒者]]。</t>
   </si>
   <si>
@@ -2311,9 +1873,6 @@
     <t>野马骆驼骑手军营</t>
   </si>
   <si>
-    <t>Akhal Camel Rider Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:野马骆驼骑手]]。</t>
   </si>
   <si>
@@ -2326,9 +1885,6 @@
     <t>野马重铠骑手军营</t>
   </si>
   <si>
-    <t>Akhal Heavy Rider Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:野马重铠骑手]]。</t>
   </si>
   <si>
@@ -2341,9 +1897,6 @@
     <t>野马轻骑兵军营</t>
   </si>
   <si>
-    <t>Akhal Light Cavalry Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:野马轻骑兵]]。</t>
   </si>
   <si>
@@ -2356,9 +1909,6 @@
     <t>野马枪骑兵军营</t>
   </si>
   <si>
-    <t>Akhal Lance Cavalry Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:野马枪骑兵]]。</t>
   </si>
   <si>
@@ -2371,9 +1921,6 @@
     <t>野马弓骑兵军营</t>
   </si>
   <si>
-    <t>Akhal Horse Archer Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:野马弓骑兵]]。</t>
   </si>
   <si>
@@ -2386,9 +1933,6 @@
     <t>野马夺箭者军营</t>
   </si>
   <si>
-    <t>Akhal Reaver Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:野马夺箭者]]。</t>
   </si>
   <si>
@@ -2401,9 +1945,6 @@
     <t>雪岭巨剑兵军营</t>
   </si>
   <si>
-    <t>Dhib Claymore Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:雪岭巨剑兵]]。</t>
   </si>
   <si>
@@ -2416,9 +1957,6 @@
     <t>雪岭大剑士军营</t>
   </si>
   <si>
-    <t>Dhib Greatswordman Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雪岭大剑士]]。</t>
   </si>
   <si>
@@ -2431,9 +1969,6 @@
     <t>雪岭长枪兵军营</t>
   </si>
   <si>
-    <t>Dhib Longspearman Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:雪岭长枪兵]]。</t>
   </si>
   <si>
@@ -2446,9 +1981,6 @@
     <t>雪岭大戟士军营</t>
   </si>
   <si>
-    <t>Dhib Halberdier Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雪岭大戟士]]。</t>
   </si>
   <si>
@@ -2470,9 +2002,6 @@
     <t>雪岭狩猎者军营</t>
   </si>
   <si>
-    <t>Dhib Trapper Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:雪岭狩猎者]]。</t>
   </si>
   <si>
@@ -2500,9 +2029,6 @@
     <t>蛮牛武装者军营</t>
   </si>
   <si>
-    <t>Thur Militant Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:蛮牛武装者]]。</t>
   </si>
   <si>
@@ -2521,9 +2047,6 @@
     <t>蛮牛巨弓射手军营</t>
   </si>
   <si>
-    <t>Thur Greatbowman Camp</t>
-  </si>
-  <si>
     <t>占用20人口,允许招募[[imp:蛮牛巨弓射手]]。</t>
   </si>
   <si>
@@ -2536,26 +2059,500 @@
     <t>蛮牛开山射手军营</t>
   </si>
   <si>
-    <t>Thur Ridge Shooter Camp</t>
-  </si>
-  <si>
     <t>占用30人口,允许招募[[imp:蛮牛开山射手]]。</t>
   </si>
   <si>
     <t xml:space="preserve">Uses 30 Population. Recruit &lt;color=red&gt;Thur Ridge Shooter&lt;/color&gt; here. </t>
+  </si>
+  <si>
+    <t>Pequena Fazenda</t>
+  </si>
+  <si>
+    <t>Fazenda</t>
+  </si>
+  <si>
+    <t>Grande Fazenda</t>
+  </si>
+  <si>
+    <t>Canil Simples</t>
+  </si>
+  <si>
+    <t>Jardim Zoológico</t>
+  </si>
+  <si>
+    <t>Acampamento de Mercenários</t>
+  </si>
+  <si>
+    <t>Guilda de Mercenários</t>
+  </si>
+  <si>
+    <t>Ferreiro</t>
+  </si>
+  <si>
+    <t>Forja</t>
+  </si>
+  <si>
+    <t>Forja de Elite</t>
+  </si>
+  <si>
+    <t>Posto de Sentinela de Madeira</t>
+  </si>
+  <si>
+    <t>Posto de Sentinela Sólida</t>
+  </si>
+  <si>
+    <t>Torre de Vigia</t>
+  </si>
+  <si>
+    <t>Portal Arcano</t>
+  </si>
+  <si>
+    <t>Oficina de Armadura</t>
+  </si>
+  <si>
+    <t>Oficina de Armadura Grande</t>
+  </si>
+  <si>
+    <t>Arsenal Real</t>
+  </si>
+  <si>
+    <t>Estábulos</t>
+  </si>
+  <si>
+    <t>Estábulos dos Cavaleiros</t>
+  </si>
+  <si>
+    <t>Estábulos do Sultão</t>
+  </si>
+  <si>
+    <t>Residência Pequena</t>
+  </si>
+  <si>
+    <t>Melhorar Residência Pequena</t>
+  </si>
+  <si>
+    <t>Residência Média</t>
+  </si>
+  <si>
+    <t>Residência Grande</t>
+  </si>
+  <si>
+    <t>Campo de Mineração de Jade</t>
+  </si>
+  <si>
+    <t>Campo de Mineração de Ferro</t>
+  </si>
+  <si>
+    <t>Madeireira</t>
+  </si>
+  <si>
+    <t>Grande Madeireira</t>
+  </si>
+  <si>
+    <t>Grande Campo de Mineração de Jade</t>
+  </si>
+  <si>
+    <t>Grande Campo de Mineração de Ferro</t>
+  </si>
+  <si>
+    <t>Entreposto Comercial</t>
+  </si>
+  <si>
+    <t>Grande Entreposto Comercial</t>
+  </si>
+  <si>
+    <t>Bazar Comercial</t>
+  </si>
+  <si>
+    <t>Fontes de Água Doce</t>
+  </si>
+  <si>
+    <t>Coração da Natureza</t>
+  </si>
+  <si>
+    <t>Torre Flutuante da Primavera</t>
+  </si>
+  <si>
+    <t>Pilar de Fogo</t>
+  </si>
+  <si>
+    <t>Ruínas Destruídas</t>
+  </si>
+  <si>
+    <t>Acampamento de Aldeões Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Espiões Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Assassinos Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Assassinos de Elite Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Exterminadores Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Exterminadores Mestres Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Iniciantes Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Sacerdotes Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Altos Sacerdotes Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Anciãos Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Jovens Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Aprendizes de Alquimia Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Alquimistas Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Apóstolos Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Sacerdotisas Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Altas Sacerdotisas Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Viúvas Negras Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Viúvas Negras de Elite Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Fazendeiros Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Milícias Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Besteiros Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Besteiros de Elite Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Besteiros Ases Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Aprendizes Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Feiticeiros Novatos Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Feiticeiros Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Magos Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Magos Nasir Supremos</t>
+  </si>
+  <si>
+    <t>Acampamento de Anciãos Místicos Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Curandeiros Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Clérigos Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Infantaria Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Lanceiros Nasir de Elite</t>
+  </si>
+  <si>
+    <t>Acampamento de Lanceiros Pesados Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Lanceiros Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Escudeiros Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Escudeiros Pesados Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavaleiros Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria Pesada Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria de Guarda Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Plebeus Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Heróis Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Guerreiros Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Atiradores Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Infantaria Pesada Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Infantaria Blindada Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Sargentos de Elite Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Saqueadores Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Saqueadores Armados Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Berserkers Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Monges Guerreiros Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Caçadores Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Arqueiros Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Arqueiros Blindados Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Fazendeiros Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Pastores Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Heróis Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Soldados Cinza Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavaleiros Cinza Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Espadachins Cinza Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Guerreiros Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Guerreiros Dhib de Elite</t>
+  </si>
+  <si>
+    <t>Acampamento de Mestres da Espada Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Espadachins Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Caçadores Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Rastreadores Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Domadores Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Treinadores de Bestas Dhib de Elite</t>
+  </si>
+  <si>
+    <t>Acampamento de Falcoeiros Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Domadores de Bestas Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Habitantes Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Espadachins Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Guerreiros Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Guerreiros Akhal de Elite</t>
+  </si>
+  <si>
+    <t>Acampamento de Guerreiros Tempestuosos Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria de Camelos Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria de Camelos Pesada Akhal de Elite</t>
+  </si>
+  <si>
+    <t>Acampamento de Trapaceiros Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavaleiros Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavaleiros Akhal de Elite</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria Pesada Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria Pesada Pesada Akhal de Elite</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria Tempestuosa Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento dos Arqueiros Montados Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento dos Arqueiros Montados de Elite Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Arqueiros Montados Pesados Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Discípulos de Xamãs Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Xamãs Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Xamãs Akhal de Elite</t>
+  </si>
+  <si>
+    <t>Acampamento de Profetas Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Clérigos Akhal</t>
+  </si>
+  <si>
+    <t>Tenda Tribal</t>
+  </si>
+  <si>
+    <t>Posto Avançado Tribal</t>
+  </si>
+  <si>
+    <t>Fortaleza Tribal</t>
+  </si>
+  <si>
+    <t>Biblioteca</t>
+  </si>
+  <si>
+    <t>Biblioteca Secreta</t>
+  </si>
+  <si>
+    <t>Biblioteca Antiga</t>
+  </si>
+  <si>
+    <t>Acampamento de Infantaria Pesada Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Hoplitas Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria de Assalto Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Atiradores Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Atiradores Rápidos Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Herbalistas Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Perseguidores Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Arremessadores de Dardos Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento dos Atiradores de Bestas Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Atiradores de Espinhos Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Bebedores de Veneno Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Envenenadores Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavaleiros de Camelos Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavaleiros Pesados Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria Leve Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria de Lanças Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Arqueiros a Cavalo Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Pilhadores Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Claymores Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Espadachins Grandes Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Lanceiros Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Alabarderos Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Trapaceiros Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Militantes Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Grandes Arqueiros Thur</t>
+  </si>
+  <si>
+    <t>Acampamento de Atiradores de Colinas Thur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2563,138 +2560,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2706,7 +2578,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2717,18 +2589,23 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="宋体"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2738,186 +2615,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2956,11 +2653,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEA04" tint="0"/>
+        <fgColor rgb="FFFFEA04"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2985,578 +2682,148 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="8" applyFill="1" borderId="4" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="6" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="12" applyFill="1" borderId="5" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="49" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="50" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="51" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="52" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="33" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="33" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="34" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="34" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="35" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="35" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="35" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="36" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="36" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="37" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="37" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="38" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="39" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="39" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="39" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="40" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="40" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="40" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="41" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="41" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="41" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="42" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="43" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="42" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="53">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="普通 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="普通 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="007E719F"/>
-      <color rgb="00F3EA9D"/>
-      <color rgb="00EFE4B7"/>
-      <color rgb="00F3DC96"/>
-      <color rgb="00F6D576"/>
+      <color rgb="FF7E719F"/>
+      <color rgb="FFF3EA9D"/>
+      <color rgb="FFEFE4B7"/>
+      <color rgb="FFF3DC96"/>
+      <color rgb="FFF6D576"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3885,2976 +3152,2986 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="151.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:5" ht="56.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:5" ht="33.75">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="E2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="78" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="33.75">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="54" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="C3" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="E3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="55" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="33.75">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="54" t="s">
+      <c r="C4" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="E4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="78" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="101.25">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="C5" s="25" t="s">
+        <v>684</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="54" t="s">
+      <c r="E5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="54" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="101.25">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="C6" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33.75">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="54" t="s">
+      <c r="C7" s="25" t="s">
+        <v>686</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="E7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="78" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="56.25">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="54" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="C8" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="E8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="55" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="54" t="s">
+      <c r="C9" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="E9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="78" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="C10" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="54" t="s">
+      <c r="E10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="54" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="56.25">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="C11" s="25" t="s">
+        <v>690</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E11" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="54" t="s">
+    <row r="12" spans="1:5" ht="56.25">
+      <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C12" s="25" t="s">
+        <v>691</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="E12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="78" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="56.25">
+      <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="54" t="s">
+      <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="C13" s="25" t="s">
+        <v>692</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="E13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="55" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="56.25">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="54" t="s">
+      <c r="C14" s="25" t="s">
+        <v>693</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="E14" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="78" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="56.25">
+      <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="C15" s="25" t="s">
+        <v>694</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="54" t="s">
+      <c r="E15" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="54" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="78.75">
+      <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="C16" s="25" t="s">
+        <v>695</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="78" t="s">
+      <c r="E16" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="54" t="s">
+    <row r="17" spans="1:5" ht="78.75">
+      <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C17" s="25" t="s">
+        <v>696</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="E17" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="78" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="78.75">
+      <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="54" t="s">
+      <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="C18" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="D18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="E18" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="78" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="78.75">
+      <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="54" t="s">
+      <c r="B19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="C19" s="25" t="s">
+        <v>697</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="E19" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="55" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="67.5">
+      <c r="A20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="54" t="s">
+      <c r="C20" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="E20" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="78" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="67.5">
+      <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="B21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="C21" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="54" t="s">
+      <c r="E21" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="54" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="67.5">
+      <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="B22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="C22" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E22" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="54" t="s">
+    <row r="23" spans="1:5" ht="22.5">
+      <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C23" s="25" t="s">
+        <v>701</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="E23" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="78" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="22.5">
+      <c r="A24" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="54" t="s">
+      <c r="B24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="C24" s="25" t="s">
+        <v>702</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="E24" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="55" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="22.5">
+      <c r="A25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="78" t="s">
+      <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="54" t="s">
+      <c r="C25" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="E25" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="78" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="22.5">
+      <c r="A26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="B26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="C26" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="54" t="s">
+      <c r="E26" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="54" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="B27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="C27" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="78" t="s">
+      <c r="E27" s="25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="54" t="s">
+    <row r="28" spans="1:5" ht="56.25">
+      <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C28" s="25" t="s">
+        <v>709</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="E28" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="78" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="33.75">
+      <c r="A29" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="54" t="s">
+      <c r="B29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="C29" s="25" t="s">
+        <v>706</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="E29" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="55" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="33.75">
+      <c r="A30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="78" t="s">
+      <c r="B30" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="54" t="s">
+      <c r="C30" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="E30" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="78" t="s">
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="B31" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="78" t="s">
+      <c r="C31" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="54" t="s">
+      <c r="E31" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="54" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="33.75">
+      <c r="A32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="B32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="C32" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="78" t="s">
+      <c r="E32" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="54" t="s">
+    <row r="33" spans="1:5" ht="56.25">
+      <c r="A33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C33" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="E33" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="78" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="56.25">
+      <c r="A34" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="54" t="s">
+      <c r="B34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="C34" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="E34" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="55" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="56.25">
+      <c r="A35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="78" t="s">
+      <c r="B35" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="54" t="s">
+      <c r="C35" s="25" t="s">
+        <v>713</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="E35" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="78" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="78.75">
+      <c r="A36" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="B36" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="C36" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="54" t="s">
+      <c r="E36" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="54" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="45">
+      <c r="A37" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="B37" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="C37" s="25" t="s">
+        <v>715</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E37" s="25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="54" t="s">
+    <row r="38" spans="1:5" ht="45">
+      <c r="A38" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B38" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C38" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="E38" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="78" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="56.25">
+      <c r="A39" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="54" t="s">
+      <c r="B39" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="C39" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="E39" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="55" t="s">
+    </row>
+    <row r="40" spans="1:5" ht="123.75">
+      <c r="A40" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="B40" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="54" t="s">
+      <c r="C40" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="E40" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="78" t="s">
+    </row>
+    <row r="41" spans="1:5" ht="24">
+      <c r="A41" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="B41" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="78" t="s">
+      <c r="C41" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="54" t="s">
+      <c r="E41" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="54" t="s">
+    </row>
+    <row r="42" spans="1:5" ht="24">
+      <c r="A42" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="B42" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="C42" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="78" t="s">
+      <c r="E42" s="25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="54" t="s">
+    <row r="43" spans="1:5" ht="24">
+      <c r="A43" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B43" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C43" s="25" t="s">
+        <v>721</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="E43" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="78" t="s">
+    </row>
+    <row r="44" spans="1:5" ht="24">
+      <c r="A44" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="56" t="s">
+      <c r="B44" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="C44" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="E44" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="57" t="s">
+    </row>
+    <row r="45" spans="1:5" ht="24">
+      <c r="A45" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="B45" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="56" t="s">
+      <c r="C45" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="E45" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C37" s="78" t="s">
+    </row>
+    <row r="46" spans="1:5" ht="24">
+      <c r="A46" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="B46" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E37" s="78" t="s">
+      <c r="C46" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="56" t="s">
+      <c r="E46" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="56" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="24">
+      <c r="A47" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="B47" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="C47" s="25" t="s">
+        <v>725</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E38" s="78" t="s">
+      <c r="E47" s="25" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="56" t="s">
+    <row r="48" spans="1:5" ht="24">
+      <c r="A48" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B48" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C48" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="E48" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="E39" s="78" t="s">
+    </row>
+    <row r="49" spans="1:5" ht="24">
+      <c r="A49" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="56" t="s">
+      <c r="B49" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="C49" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="E49" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="D40" s="57" t="s">
+    </row>
+    <row r="50" spans="1:5" ht="24">
+      <c r="A50" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E40" s="78" t="s">
+      <c r="B50" s="6" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="58" t="s">
+      <c r="C50" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="E50" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C41" s="78" t="s">
+    </row>
+    <row r="51" spans="1:5" ht="24">
+      <c r="A51" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D41" s="60" t="s">
+      <c r="B51" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E41" s="78" t="s">
+      <c r="C51" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="58" t="s">
+      <c r="E51" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B42" s="59" t="s">
+    </row>
+    <row r="52" spans="1:5" ht="36">
+      <c r="A52" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="B52" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D42" s="60" t="s">
+      <c r="C52" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E52" s="25" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="58" t="s">
+    <row r="53" spans="1:5" ht="24">
+      <c r="A53" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B53" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C53" s="25" t="s">
+        <v>731</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D43" s="60" t="s">
+      <c r="E53" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="E43" s="78" t="s">
+    </row>
+    <row r="54" spans="1:5" ht="24">
+      <c r="A54" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="58" t="s">
+      <c r="B54" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="C54" s="25" t="s">
+        <v>732</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="E54" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="D44" s="60" t="s">
+    </row>
+    <row r="55" spans="1:5" ht="24">
+      <c r="A55" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E44" s="78" t="s">
+      <c r="B55" s="6" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="58" t="s">
+      <c r="C55" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="E55" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C45" s="78" t="s">
+    </row>
+    <row r="56" spans="1:5" ht="36">
+      <c r="A56" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="B56" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="C56" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="58" t="s">
+      <c r="E56" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="B46" s="59" t="s">
+    </row>
+    <row r="57" spans="1:5" ht="24">
+      <c r="A57" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C46" s="78" t="s">
+      <c r="B57" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D46" s="60" t="s">
+      <c r="C57" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E46" s="78" t="s">
+      <c r="E57" s="25" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="58" t="s">
+    <row r="58" spans="1:5" ht="36">
+      <c r="A58" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B58" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C58" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D47" s="60" t="s">
+      <c r="E58" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E47" s="78" t="s">
+    </row>
+    <row r="59" spans="1:5" ht="24">
+      <c r="A59" s="5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="58" t="s">
+      <c r="B59" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="C59" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="E59" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="D48" s="60" t="s">
+    </row>
+    <row r="60" spans="1:5" ht="24">
+      <c r="A60" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E48" s="78" t="s">
+      <c r="B60" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="58" t="s">
+      <c r="C60" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="E60" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="C49" s="78" t="s">
+    </row>
+    <row r="61" spans="1:5" ht="24">
+      <c r="A61" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D49" s="60" t="s">
+      <c r="B61" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E49" s="78" t="s">
+      <c r="C61" s="25" t="s">
+        <v>739</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="58" t="s">
+      <c r="E61" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="B50" s="59" t="s">
+    </row>
+    <row r="62" spans="1:5" ht="24">
+      <c r="A62" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="B62" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D50" s="60" t="s">
+      <c r="C62" s="25" t="s">
+        <v>740</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E50" s="78" t="s">
+      <c r="E62" s="25" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="58" t="s">
+    <row r="63" spans="1:5" ht="24">
+      <c r="A63" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B63" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="C63" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D51" s="60" t="s">
+      <c r="E63" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="E51" s="78" t="s">
+    </row>
+    <row r="64" spans="1:5" ht="24">
+      <c r="A64" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="58" t="s">
+      <c r="B64" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="C64" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C52" s="78" t="s">
+      <c r="E64" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="D52" s="60" t="s">
+    </row>
+    <row r="65" spans="1:5" ht="36">
+      <c r="A65" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E52" s="78" t="s">
+      <c r="B65" s="6" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="58" t="s">
+      <c r="C65" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="E65" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="C53" s="78" t="s">
+    </row>
+    <row r="66" spans="1:5" ht="24">
+      <c r="A66" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D53" s="60" t="s">
+      <c r="B66" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E53" s="78" t="s">
+      <c r="C66" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="58" t="s">
+      <c r="E66" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="B54" s="59" t="s">
+    </row>
+    <row r="67" spans="1:5" ht="24">
+      <c r="A67" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="78" t="s">
+      <c r="B67" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D54" s="60" t="s">
+      <c r="C67" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E54" s="78" t="s">
+      <c r="E67" s="25" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="58" t="s">
+    <row r="68" spans="1:5" ht="24">
+      <c r="A68" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B68" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C68" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D55" s="60" t="s">
+      <c r="E68" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="E55" s="78" t="s">
+    </row>
+    <row r="69" spans="1:5" ht="24">
+      <c r="A69" s="5" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="58" t="s">
+      <c r="B69" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="C69" s="25" t="s">
+        <v>747</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C56" s="78" t="s">
+      <c r="E69" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="D56" s="60" t="s">
+    </row>
+    <row r="70" spans="1:5" ht="24">
+      <c r="A70" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E56" s="78" t="s">
+      <c r="B70" s="6" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="58" t="s">
+      <c r="C70" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="E70" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="C57" s="78" t="s">
+    </row>
+    <row r="71" spans="1:5" ht="24">
+      <c r="A71" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D57" s="60" t="s">
+      <c r="B71" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E57" s="78" t="s">
+      <c r="C71" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="58" t="s">
+      <c r="E71" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="B58" s="59" t="s">
+    </row>
+    <row r="72" spans="1:5" ht="24">
+      <c r="A72" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C58" s="78" t="s">
+      <c r="B72" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D58" s="60" t="s">
+      <c r="C72" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E58" s="78" t="s">
+      <c r="E72" s="25" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="58" t="s">
+    <row r="73" spans="1:5" ht="24">
+      <c r="A73" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B73" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C59" s="78" t="s">
+      <c r="C73" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D59" s="60" t="s">
+      <c r="E73" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="E59" s="78" t="s">
+    </row>
+    <row r="74" spans="1:5" ht="24">
+      <c r="A74" s="5" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="58" t="s">
+      <c r="B74" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="C74" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="E74" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="D60" s="60" t="s">
+    </row>
+    <row r="75" spans="1:5" ht="24">
+      <c r="A75" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E60" s="78" t="s">
+      <c r="B75" s="6" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="58" t="s">
+      <c r="C75" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="E75" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="C61" s="78" t="s">
+    </row>
+    <row r="76" spans="1:5" ht="24">
+      <c r="A76" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D61" s="60" t="s">
+      <c r="B76" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E61" s="78" t="s">
+      <c r="C76" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="58" t="s">
+      <c r="E76" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="B62" s="59" t="s">
+    </row>
+    <row r="77" spans="1:5" ht="24">
+      <c r="A77" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="B77" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D62" s="60" t="s">
+      <c r="C77" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E62" s="78" t="s">
+      <c r="E77" s="25" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="58" t="s">
+    <row r="78" spans="1:5" ht="24">
+      <c r="A78" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B78" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C78" s="25" t="s">
+        <v>756</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D63" s="60" t="s">
+      <c r="E78" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="E63" s="78" t="s">
+    </row>
+    <row r="79" spans="1:5" ht="24">
+      <c r="A79" s="5" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="58" t="s">
+      <c r="B79" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="C79" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C64" s="78" t="s">
+      <c r="E79" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="D64" s="60" t="s">
+    </row>
+    <row r="80" spans="1:5" ht="24">
+      <c r="A80" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E64" s="78" t="s">
+      <c r="B80" s="6" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="58" t="s">
+      <c r="C80" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="E80" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="C65" s="78" t="s">
+    </row>
+    <row r="81" spans="1:5" ht="24">
+      <c r="A81" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D65" s="60" t="s">
+      <c r="B81" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E65" s="78" t="s">
+      <c r="C81" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="58" t="s">
+      <c r="E81" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="B66" s="59" t="s">
+    </row>
+    <row r="82" spans="1:5" ht="24">
+      <c r="A82" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C66" s="78" t="s">
+      <c r="B82" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D66" s="60" t="s">
+      <c r="C82" s="25" t="s">
+        <v>760</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="E66" s="78" t="s">
+      <c r="E82" s="25" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="58" t="s">
+    <row r="83" spans="1:5" ht="24">
+      <c r="A83" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B83" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C83" s="25" t="s">
+        <v>761</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="D67" s="60" t="s">
+      <c r="E83" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="E67" s="78" t="s">
+    </row>
+    <row r="84" spans="1:5" ht="24">
+      <c r="A84" s="5" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="58" t="s">
+      <c r="B84" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="C84" s="25" t="s">
+        <v>762</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C68" s="78" t="s">
+      <c r="E84" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="D68" s="60" t="s">
+    </row>
+    <row r="85" spans="1:5" ht="24">
+      <c r="A85" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E68" s="78" t="s">
+      <c r="B85" s="6" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="58" t="s">
+      <c r="C85" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="E85" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="C69" s="78" t="s">
+    </row>
+    <row r="86" spans="1:5" ht="24">
+      <c r="A86" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D69" s="60" t="s">
+      <c r="B86" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E69" s="78" t="s">
+      <c r="C86" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="58" t="s">
+      <c r="E86" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="B70" s="59" t="s">
+    </row>
+    <row r="87" spans="1:5" ht="36">
+      <c r="A87" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C70" s="78" t="s">
+      <c r="B87" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D70" s="60" t="s">
+      <c r="C87" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="E70" s="78" t="s">
+      <c r="E87" s="25" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="58" t="s">
+    <row r="88" spans="1:5" ht="24">
+      <c r="A88" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B71" s="59" t="s">
+      <c r="B88" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C71" s="78" t="s">
+      <c r="C88" s="25" t="s">
+        <v>766</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D71" s="60" t="s">
+      <c r="E88" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="E71" s="78" t="s">
+    </row>
+    <row r="89" spans="1:5" ht="36">
+      <c r="A89" s="5" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="58" t="s">
+      <c r="B89" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B72" s="59" t="s">
+      <c r="C89" s="25" t="s">
+        <v>767</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="E89" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="D72" s="60" t="s">
+    </row>
+    <row r="90" spans="1:5" ht="24">
+      <c r="A90" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E72" s="78" t="s">
+      <c r="B90" s="6" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="58" t="s">
+      <c r="C90" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B73" s="59" t="s">
+      <c r="E90" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="C73" s="78" t="s">
+    </row>
+    <row r="91" spans="1:5" ht="24">
+      <c r="A91" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D73" s="60" t="s">
+      <c r="B91" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E73" s="78" t="s">
+      <c r="C91" s="25" t="s">
+        <v>769</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="58" t="s">
+      <c r="E91" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="B74" s="59" t="s">
+    </row>
+    <row r="92" spans="1:5" ht="24">
+      <c r="A92" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C74" s="78" t="s">
+      <c r="B92" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D74" s="60" t="s">
+      <c r="C92" s="25" t="s">
+        <v>770</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="E74" s="78" t="s">
+      <c r="E92" s="25" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="58" t="s">
+    <row r="93" spans="1:5" ht="24">
+      <c r="A93" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B75" s="59" t="s">
+      <c r="B93" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C75" s="78" t="s">
+      <c r="C93" s="25" t="s">
+        <v>771</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D75" s="60" t="s">
+      <c r="E93" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="E75" s="78" t="s">
+    </row>
+    <row r="94" spans="1:5" ht="24">
+      <c r="A94" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="58" t="s">
+      <c r="B94" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B76" s="59" t="s">
+      <c r="C94" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="D94" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="D76" s="60" t="s">
+      <c r="E94" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="E76" s="78" t="s">
+    </row>
+    <row r="95" spans="1:5" ht="36">
+      <c r="A95" s="5" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="58" t="s">
+      <c r="B95" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B77" s="59" t="s">
+      <c r="C95" s="25" t="s">
+        <v>772</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C77" s="78" t="s">
+      <c r="E95" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="D77" s="60" t="s">
+    </row>
+    <row r="96" spans="1:5" ht="24">
+      <c r="A96" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="E77" s="78" t="s">
+      <c r="B96" s="6" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="58" t="s">
+      <c r="C96" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B78" s="59" t="s">
+      <c r="E96" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C78" s="78" t="s">
+    </row>
+    <row r="97" spans="1:5" ht="24">
+      <c r="A97" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D78" s="60" t="s">
+      <c r="B97" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E78" s="78" t="s">
+      <c r="C97" s="25" t="s">
+        <v>774</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="58" t="s">
+      <c r="E97" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="B79" s="59" t="s">
+    </row>
+    <row r="98" spans="1:5" ht="24">
+      <c r="A98" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C79" s="78" t="s">
+      <c r="B98" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D79" s="60" t="s">
+      <c r="C98" s="25" t="s">
+        <v>775</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="E79" s="78" t="s">
+      <c r="E98" s="25" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="58" t="s">
+    <row r="99" spans="1:5" ht="24">
+      <c r="A99" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B80" s="59" t="s">
+      <c r="B99" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C80" s="78" t="s">
+      <c r="C99" s="25" t="s">
+        <v>776</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="D80" s="60" t="s">
+      <c r="E99" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="E80" s="78" t="s">
+    </row>
+    <row r="100" spans="1:5" ht="24">
+      <c r="A100" s="5" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="58" t="s">
+      <c r="B100" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B81" s="59" t="s">
+      <c r="C100" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C81" s="78" t="s">
+      <c r="E100" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="D81" s="60" t="s">
+    </row>
+    <row r="101" spans="1:5" ht="36">
+      <c r="A101" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E81" s="78" t="s">
+      <c r="B101" s="6" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="58" t="s">
+      <c r="C101" s="25" t="s">
+        <v>778</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B82" s="59" t="s">
+      <c r="E101" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="C82" s="78" t="s">
+    </row>
+    <row r="102" spans="1:5" ht="24">
+      <c r="A102" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D82" s="60" t="s">
+      <c r="B102" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="E82" s="78" t="s">
+      <c r="C102" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="58" t="s">
+      <c r="E102" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="B83" s="59" t="s">
+    </row>
+    <row r="103" spans="1:5" ht="24">
+      <c r="A103" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C83" s="78" t="s">
+      <c r="B103" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D83" s="60" t="s">
+      <c r="C103" s="25" t="s">
+        <v>780</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="E83" s="78" t="s">
+      <c r="E103" s="25" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="58" t="s">
+    <row r="104" spans="1:5" ht="24">
+      <c r="A104" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B84" s="59" t="s">
+      <c r="B104" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C84" s="78" t="s">
+      <c r="C104" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="D84" s="60" t="s">
+      <c r="E104" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="E84" s="78" t="s">
+    </row>
+    <row r="105" spans="1:5" ht="24">
+      <c r="A105" s="5" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="58" t="s">
+      <c r="B105" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="B85" s="59" t="s">
+      <c r="C105" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="C85" s="78" t="s">
+      <c r="E105" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="D85" s="60" t="s">
+    </row>
+    <row r="106" spans="1:5" ht="24">
+      <c r="A106" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="E85" s="78" t="s">
+      <c r="B106" s="6" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="58" t="s">
+      <c r="C106" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B86" s="59" t="s">
+      <c r="E106" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="C86" s="78" t="s">
+    </row>
+    <row r="107" spans="1:5" ht="24">
+      <c r="A107" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D86" s="60" t="s">
+      <c r="B107" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="E86" s="78" t="s">
+      <c r="C107" s="25" t="s">
+        <v>784</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="58" t="s">
+      <c r="E107" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="B87" s="59" t="s">
+    </row>
+    <row r="108" spans="1:5" ht="24">
+      <c r="A108" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C87" s="78" t="s">
+      <c r="B108" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D87" s="60" t="s">
+      <c r="C108" s="25" t="s">
+        <v>785</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="E87" s="78" t="s">
+      <c r="E108" s="25" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="58" t="s">
+    <row r="109" spans="1:5" ht="36">
+      <c r="A109" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B88" s="59" t="s">
+      <c r="B109" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C88" s="78" t="s">
+      <c r="C109" s="25" t="s">
+        <v>786</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="D88" s="60" t="s">
+      <c r="E109" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="E88" s="78" t="s">
+    </row>
+    <row r="110" spans="1:5" ht="24">
+      <c r="A110" s="5" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="58" t="s">
+      <c r="B110" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B89" s="59" t="s">
+      <c r="C110" s="25" t="s">
+        <v>787</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="C89" s="78" t="s">
+      <c r="E110" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="D89" s="60" t="s">
+    </row>
+    <row r="111" spans="1:5" ht="24">
+      <c r="A111" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="E89" s="78" t="s">
+      <c r="B111" s="6" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="58" t="s">
+      <c r="C111" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B90" s="59" t="s">
+      <c r="E111" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="C90" s="78" t="s">
+    </row>
+    <row r="112" spans="1:5" ht="24">
+      <c r="A112" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D90" s="60" t="s">
+      <c r="B112" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="E90" s="78" t="s">
+      <c r="C112" s="25" t="s">
+        <v>789</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="58" t="s">
+      <c r="E112" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="B91" s="59" t="s">
+    </row>
+    <row r="113" spans="1:5" ht="24">
+      <c r="A113" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C91" s="78" t="s">
+      <c r="B113" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D91" s="60" t="s">
+      <c r="C113" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E91" s="78" t="s">
+      <c r="E113" s="25" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="58" t="s">
+    <row r="114" spans="1:5" ht="24">
+      <c r="A114" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B92" s="59" t="s">
+      <c r="B114" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C92" s="78" t="s">
+      <c r="C114" s="25" t="s">
+        <v>791</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="D92" s="60" t="s">
+      <c r="E114" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="E92" s="78" t="s">
+    </row>
+    <row r="115" spans="1:5" ht="24">
+      <c r="A115" s="5" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="58" t="s">
+      <c r="B115" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B93" s="59" t="s">
+      <c r="C115" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="C93" s="78" t="s">
+      <c r="E115" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="D93" s="60" t="s">
+    </row>
+    <row r="116" spans="1:5" ht="24">
+      <c r="A116" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="E93" s="78" t="s">
+      <c r="B116" s="6" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="58" t="s">
+      <c r="C116" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B94" s="59" t="s">
+      <c r="E116" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="C94" s="78" t="s">
+    </row>
+    <row r="117" spans="1:5" ht="24">
+      <c r="A117" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D94" s="60" t="s">
+      <c r="B117" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="E94" s="78" t="s">
+      <c r="C117" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="58" t="s">
+      <c r="E117" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="B95" s="59" t="s">
+    </row>
+    <row r="118" spans="1:5" ht="36">
+      <c r="A118" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C95" s="78" t="s">
+      <c r="B118" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="D95" s="60" t="s">
+      <c r="C118" s="25" t="s">
+        <v>795</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="E95" s="78" t="s">
+      <c r="E118" s="25" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="58" t="s">
+    <row r="119" spans="1:5" ht="24">
+      <c r="A119" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B96" s="59" t="s">
+      <c r="B119" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C96" s="78" t="s">
+      <c r="C119" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="D96" s="60" t="s">
+      <c r="E119" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="E96" s="78" t="s">
+    </row>
+    <row r="120" spans="1:5" ht="24">
+      <c r="A120" s="5" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="58" t="s">
+      <c r="B120" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B97" s="59" t="s">
+      <c r="C120" s="25" t="s">
+        <v>797</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="C97" s="78" t="s">
+      <c r="E120" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="D97" s="60" t="s">
+    </row>
+    <row r="121" spans="1:5" ht="24">
+      <c r="A121" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="E97" s="78" t="s">
+      <c r="B121" s="6" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="58" t="s">
+      <c r="C121" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B98" s="59" t="s">
+      <c r="E121" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C98" s="78" t="s">
+    </row>
+    <row r="122" spans="1:5" ht="24">
+      <c r="A122" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D98" s="60" t="s">
+      <c r="B122" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="E98" s="78" t="s">
+      <c r="C122" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="58" t="s">
+      <c r="E122" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="B99" s="59" t="s">
+    </row>
+    <row r="123" spans="1:5" ht="36">
+      <c r="A123" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C99" s="78" t="s">
+      <c r="B123" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="D99" s="60" t="s">
+      <c r="C123" s="25" t="s">
+        <v>800</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E99" s="78" t="s">
+      <c r="E123" s="25" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="58" t="s">
+    <row r="124" spans="1:5" ht="24">
+      <c r="A124" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B100" s="59" t="s">
+      <c r="B124" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C100" s="78" t="s">
+      <c r="C124" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="D100" s="60" t="s">
+      <c r="E124" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="E100" s="78" t="s">
+    </row>
+    <row r="125" spans="1:5" ht="24">
+      <c r="A125" s="5" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="58" t="s">
+      <c r="B125" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="B101" s="59" t="s">
+      <c r="C125" s="25" t="s">
+        <v>802</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="C101" s="78" t="s">
+      <c r="E125" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="D101" s="60" t="s">
+    </row>
+    <row r="126" spans="1:5" ht="24">
+      <c r="A126" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="E101" s="78" t="s">
+      <c r="B126" s="6" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="58" t="s">
+      <c r="C126" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="D126" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="B102" s="59" t="s">
+      <c r="E126" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="C102" s="78" t="s">
+    </row>
+    <row r="127" spans="1:5" ht="24">
+      <c r="A127" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D102" s="60" t="s">
+      <c r="B127" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="E102" s="78" t="s">
+      <c r="C127" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="D127" s="7" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="58" t="s">
+      <c r="E127" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="B103" s="59" t="s">
+    </row>
+    <row r="128" spans="1:5" ht="24">
+      <c r="A128" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C103" s="78" t="s">
+      <c r="B128" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="D103" s="60" t="s">
+      <c r="C128" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="E103" s="78" t="s">
+      <c r="E128" s="25" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="58" t="s">
+    <row r="129" spans="1:5" ht="24">
+      <c r="A129" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="B104" s="59" t="s">
+      <c r="B129" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C104" s="78" t="s">
+      <c r="C129" s="25" t="s">
+        <v>806</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="D104" s="60" t="s">
+      <c r="E129" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="E104" s="78" t="s">
+    </row>
+    <row r="130" spans="1:5" ht="24">
+      <c r="A130" s="5" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="58" t="s">
+      <c r="B130" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="B105" s="59" t="s">
+      <c r="C130" s="25" t="s">
+        <v>807</v>
+      </c>
+      <c r="D130" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C105" s="78" t="s">
+      <c r="E130" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="D105" s="60" t="s">
+    </row>
+    <row r="131" spans="1:5" ht="24">
+      <c r="A131" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="E105" s="78" t="s">
+      <c r="B131" s="6" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="58" t="s">
+      <c r="C131" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="B106" s="59" t="s">
+      <c r="E131" s="25" t="s">
         <v>524</v>
       </c>
-      <c r="C106" s="78" t="s">
+    </row>
+    <row r="132" spans="1:5" ht="24">
+      <c r="A132" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D106" s="60" t="s">
+      <c r="B132" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="E106" s="78" t="s">
+      <c r="C132" s="25" t="s">
+        <v>809</v>
+      </c>
+      <c r="D132" s="7" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="58" t="s">
+      <c r="E132" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="B107" s="59" t="s">
+    </row>
+    <row r="133" spans="1:5" ht="56.25">
+      <c r="A133" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="C107" s="78" t="s">
+      <c r="B133" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="D107" s="60" t="s">
+      <c r="E133" s="25" t="s">
         <v>531</v>
       </c>
-      <c r="E107" s="78" t="s">
+    </row>
+    <row r="134" spans="1:5" ht="56.25">
+      <c r="A134" s="8" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="58" t="s">
+      <c r="B134" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="B108" s="59" t="s">
+      <c r="C134" s="25" t="s">
+        <v>811</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="56.25">
+      <c r="A135" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="C108" s="78" t="s">
+      <c r="B135" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="56.25">
+      <c r="A136" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D108" s="60" t="s">
+      <c r="B136" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="E108" s="78" t="s">
+      <c r="C136" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="58" t="s">
+      <c r="E136" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="B109" s="59" t="s">
+    </row>
+    <row r="137" spans="1:5" ht="56.25">
+      <c r="A137" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C109" s="78" t="s">
+      <c r="B137" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D109" s="60" t="s">
+      <c r="C137" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E109" s="78" t="s">
+      <c r="E137" s="25" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="58" t="s">
+    <row r="138" spans="1:5" ht="56.25">
+      <c r="A138" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B110" s="59" t="s">
+      <c r="B138" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C110" s="78" t="s">
+      <c r="C138" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D110" s="60" t="s">
+      <c r="E138" s="25" t="s">
         <v>546</v>
       </c>
-      <c r="E110" s="78" t="s">
+    </row>
+    <row r="139" spans="1:5" ht="24">
+      <c r="A139" s="10" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="58" t="s">
+      <c r="B139" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C139" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="D139" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="B111" s="59" t="s">
+      <c r="E139" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="C111" s="78" t="s">
+    </row>
+    <row r="140" spans="1:5" ht="36">
+      <c r="A140" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="D111" s="60" t="s">
+      <c r="B140" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="E111" s="78" t="s">
+      <c r="C140" s="25" t="s">
+        <v>816</v>
+      </c>
+      <c r="D140" s="12" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="58" t="s">
+      <c r="E140" s="25" t="s">
         <v>553</v>
       </c>
-      <c r="B112" s="59" t="s">
+    </row>
+    <row r="141" spans="1:5" ht="36">
+      <c r="A141" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="C112" s="78" t="s">
+      <c r="B141" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="D112" s="60" t="s">
+      <c r="C141" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="D141" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="E112" s="78" t="s">
+      <c r="E141" s="25" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="58" t="s">
+    <row r="142" spans="1:5" ht="36">
+      <c r="A142" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B113" s="59" t="s">
+      <c r="B142" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="C113" s="78" t="s">
+      <c r="C142" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="D142" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="D113" s="60" t="s">
+      <c r="E142" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="E113" s="78" t="s">
+    </row>
+    <row r="143" spans="1:5" ht="24">
+      <c r="A143" s="10" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="58" t="s">
+      <c r="B143" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C143" s="25" t="s">
+        <v>756</v>
+      </c>
+      <c r="D143" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="B114" s="59" t="s">
+      <c r="E143" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="36">
+      <c r="A144" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="C114" s="78" t="s">
+      <c r="B144" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="D114" s="60" t="s">
+      <c r="C144" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="D144" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="E114" s="78" t="s">
+      <c r="E144" s="25" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="58" t="s">
+    <row r="145" spans="1:5" ht="24">
+      <c r="A145" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="B115" s="59" t="s">
+      <c r="B145" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="C115" s="78" t="s">
+      <c r="C145" s="25" t="s">
+        <v>819</v>
+      </c>
+      <c r="D145" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="D115" s="60" t="s">
+      <c r="E145" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="E115" s="78" t="s">
+    </row>
+    <row r="146" spans="1:5" ht="36">
+      <c r="A146" s="10" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="58" t="s">
+      <c r="B146" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="B116" s="59" t="s">
+      <c r="C146" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="D146" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="C116" s="78" t="s">
+      <c r="E146" s="25" t="s">
         <v>575</v>
       </c>
-      <c r="D116" s="60" t="s">
+    </row>
+    <row r="147" spans="1:5" ht="36">
+      <c r="A147" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="E116" s="78" t="s">
+      <c r="B147" s="11" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="58" t="s">
+      <c r="C147" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="D147" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="B117" s="59" t="s">
+      <c r="E147" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="C117" s="78" t="s">
+    </row>
+    <row r="148" spans="1:5" ht="36">
+      <c r="A148" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="D117" s="60" t="s">
+      <c r="B148" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="E117" s="78" t="s">
+      <c r="C148" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="D148" s="12" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="58" t="s">
+      <c r="E148" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="B118" s="59" t="s">
+    </row>
+    <row r="149" spans="1:5" ht="36">
+      <c r="A149" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="C118" s="78" t="s">
+      <c r="B149" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="D118" s="60" t="s">
+      <c r="C149" s="25" t="s">
+        <v>721</v>
+      </c>
+      <c r="D149" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="E118" s="78" t="s">
+      <c r="E149" s="25" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="58" t="s">
+    <row r="150" spans="1:5" ht="36">
+      <c r="A150" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="B119" s="59" t="s">
+      <c r="B150" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C119" s="78" t="s">
+      <c r="C150" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="D150" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="D119" s="60" t="s">
+      <c r="E150" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="E119" s="78" t="s">
+    </row>
+    <row r="151" spans="1:5" ht="24">
+      <c r="A151" s="13" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="58" t="s">
+      <c r="B151" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="B120" s="59" t="s">
+      <c r="C151" s="25" t="s">
+        <v>823</v>
+      </c>
+      <c r="D151" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="C120" s="78" t="s">
+      <c r="E151" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="D120" s="60" t="s">
+    </row>
+    <row r="152" spans="1:5" ht="36">
+      <c r="A152" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="E120" s="78" t="s">
+      <c r="B152" s="14" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="58" t="s">
+      <c r="C152" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="D152" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="B121" s="59" t="s">
+      <c r="E152" s="25" t="s">
         <v>599</v>
       </c>
-      <c r="C121" s="78" t="s">
+    </row>
+    <row r="153" spans="1:5" ht="36">
+      <c r="A153" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="D121" s="60" t="s">
+      <c r="B153" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="E121" s="78" t="s">
+      <c r="C153" s="25" t="s">
+        <v>825</v>
+      </c>
+      <c r="D153" s="15" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="58" t="s">
+      <c r="E153" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="B122" s="59" t="s">
+    </row>
+    <row r="154" spans="1:5" ht="36">
+      <c r="A154" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="C122" s="78" t="s">
+      <c r="B154" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="D122" s="60" t="s">
+      <c r="C154" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="D154" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="E122" s="78" t="s">
+      <c r="E154" s="25" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="58" t="s">
+    <row r="155" spans="1:5" ht="36">
+      <c r="A155" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="B123" s="59" t="s">
+      <c r="B155" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="C123" s="78" t="s">
+      <c r="C155" s="25" t="s">
+        <v>731</v>
+      </c>
+      <c r="D155" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="D123" s="60" t="s">
+      <c r="E155" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="36">
+      <c r="A156" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="E123" s="78" t="s">
+      <c r="B156" s="14" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="58" t="s">
+      <c r="C156" s="25" t="s">
+        <v>827</v>
+      </c>
+      <c r="D156" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="B124" s="59" t="s">
+      <c r="E156" s="25" t="s">
         <v>614</v>
       </c>
-      <c r="C124" s="78" t="s">
+    </row>
+    <row r="157" spans="1:5" ht="36">
+      <c r="A157" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="D124" s="60" t="s">
+      <c r="B157" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="E124" s="78" t="s">
+      <c r="C157" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="D157" s="18" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="58" t="s">
+      <c r="E157" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="B125" s="59" t="s">
+    </row>
+    <row r="158" spans="1:5" ht="36">
+      <c r="A158" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="C125" s="78" t="s">
+      <c r="B158" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="D125" s="60" t="s">
+      <c r="C158" s="25" t="s">
+        <v>829</v>
+      </c>
+      <c r="D158" s="18" t="s">
         <v>621</v>
       </c>
-      <c r="E125" s="78" t="s">
+      <c r="E158" s="25" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="58" t="s">
+    <row r="159" spans="1:5" ht="36">
+      <c r="A159" s="16" t="s">
         <v>623</v>
       </c>
-      <c r="B126" s="59" t="s">
+      <c r="B159" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="C126" s="78" t="s">
+      <c r="C159" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="D159" s="18" t="s">
         <v>625</v>
       </c>
-      <c r="D126" s="60" t="s">
+      <c r="E159" s="25" t="s">
         <v>626</v>
       </c>
-      <c r="E126" s="78" t="s">
+    </row>
+    <row r="160" spans="1:5" ht="36">
+      <c r="A160" s="16" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="58" t="s">
+      <c r="B160" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="B127" s="59" t="s">
+      <c r="C160" s="25" t="s">
+        <v>831</v>
+      </c>
+      <c r="D160" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="C127" s="78" t="s">
+      <c r="E160" s="25" t="s">
         <v>630</v>
       </c>
-      <c r="D127" s="60" t="s">
+    </row>
+    <row r="161" spans="1:5" ht="36">
+      <c r="A161" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="E127" s="78" t="s">
+      <c r="B161" s="17" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="58" t="s">
+      <c r="C161" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="D161" s="18" t="s">
         <v>633</v>
       </c>
-      <c r="B128" s="59" t="s">
+      <c r="E161" s="25" t="s">
         <v>634</v>
       </c>
-      <c r="C128" s="78" t="s">
+    </row>
+    <row r="162" spans="1:5" ht="36">
+      <c r="A162" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="D128" s="60" t="s">
+      <c r="B162" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="E128" s="78" t="s">
+      <c r="C162" s="25" t="s">
+        <v>833</v>
+      </c>
+      <c r="D162" s="18" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="58" t="s">
+      <c r="E162" s="25" t="s">
         <v>638</v>
       </c>
-      <c r="B129" s="59" t="s">
+    </row>
+    <row r="163" spans="1:5" ht="36">
+      <c r="A163" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="C129" s="78" t="s">
+      <c r="B163" s="20" t="s">
         <v>640</v>
       </c>
-      <c r="D129" s="60" t="s">
+      <c r="C163" s="25" t="s">
+        <v>834</v>
+      </c>
+      <c r="D163" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="E129" s="78" t="s">
+      <c r="E163" s="25" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="58" t="s">
+    <row r="164" spans="1:5" ht="36">
+      <c r="A164" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="B130" s="59" t="s">
+      <c r="B164" s="20" t="s">
         <v>644</v>
       </c>
-      <c r="C130" s="78" t="s">
+      <c r="C164" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="D164" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="D130" s="60" t="s">
+      <c r="E164" s="25" t="s">
         <v>646</v>
       </c>
-      <c r="E130" s="78" t="s">
+    </row>
+    <row r="165" spans="1:5" ht="36">
+      <c r="A165" s="19" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="58" t="s">
+      <c r="B165" s="20" t="s">
         <v>648</v>
       </c>
-      <c r="B131" s="59" t="s">
+      <c r="C165" s="25" t="s">
+        <v>836</v>
+      </c>
+      <c r="D165" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="C131" s="78" t="s">
+      <c r="E165" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="D131" s="60" t="s">
+    </row>
+    <row r="166" spans="1:5" ht="36">
+      <c r="A166" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="E131" s="78" t="s">
+      <c r="B166" s="20" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="58" t="s">
+      <c r="C166" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="D166" s="21" t="s">
         <v>653</v>
       </c>
-      <c r="B132" s="59" t="s">
+      <c r="E166" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="C132" s="78" t="s">
+    </row>
+    <row r="167" spans="1:5" ht="36">
+      <c r="A167" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="D132" s="60" t="s">
+      <c r="B167" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="E132" s="78" t="s">
+      <c r="C167" s="25" t="s">
+        <v>784</v>
+      </c>
+      <c r="D167" s="21" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="61" t="s">
+      <c r="E167" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="36">
+      <c r="A168" s="19" t="s">
         <v>658</v>
       </c>
-      <c r="B133" s="61" t="s">
-        <v>658</v>
-      </c>
-      <c r="C133" s="78" t="s">
+      <c r="B168" s="20" t="s">
         <v>659</v>
       </c>
-      <c r="D133" s="62" t="s">
+      <c r="C168" s="25" t="s">
+        <v>838</v>
+      </c>
+      <c r="D168" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="E133" s="78" t="s">
+      <c r="E168" s="25" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="61" t="s">
+    <row r="169" spans="1:5" ht="36">
+      <c r="A169" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="B134" s="61" t="s">
+      <c r="B169" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C169" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="D169" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="C134" s="78" t="s">
+      <c r="E169" s="25" t="s">
         <v>664</v>
       </c>
-      <c r="D134" s="62" t="s">
-        <v>660</v>
-      </c>
-      <c r="E134" s="78" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="61" t="s">
+    </row>
+    <row r="170" spans="1:5" ht="36">
+      <c r="A170" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="B135" s="61" t="s">
-        <v>665</v>
-      </c>
-      <c r="C135" s="78" t="s">
+      <c r="B170" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C170" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="D170" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="D135" s="62" t="s">
-        <v>660</v>
-      </c>
-      <c r="E135" s="78" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="54" t="s">
+      <c r="E170" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="36">
+      <c r="A171" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="B136" s="54" t="s">
+      <c r="B171" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="C136" s="78" t="s">
+      <c r="C171" s="25" t="s">
+        <v>839</v>
+      </c>
+      <c r="D171" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="D136" s="55" t="s">
+      <c r="E171" s="25" t="s">
         <v>670</v>
       </c>
-      <c r="E136" s="78" t="s">
+    </row>
+    <row r="172" spans="1:5" ht="36">
+      <c r="A172" s="10" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="54" t="s">
+      <c r="B172" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C172" s="25" t="s">
+        <v>766</v>
+      </c>
+      <c r="D172" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="B137" s="54" t="s">
+      <c r="E172" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="36">
+      <c r="A173" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="C137" s="78" t="s">
+      <c r="B173" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="D137" s="55" t="s">
+      <c r="C173" s="25" t="s">
+        <v>840</v>
+      </c>
+      <c r="D173" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="E137" s="78" t="s">
+      <c r="E173" s="25" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="54" t="s">
+    <row r="174" spans="1:5" ht="36">
+      <c r="A174" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="B138" s="54" t="s">
+      <c r="B174" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="C138" s="78" t="s">
+      <c r="C174" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="D174" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="D138" s="55" t="s">
+      <c r="E174" s="25" t="s">
         <v>680</v>
       </c>
-      <c r="E138" s="78" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="63" t="s">
-        <v>682</v>
-      </c>
-      <c r="B139" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="C139" s="78" t="s">
-        <v>375</v>
-      </c>
-      <c r="D139" s="65" t="s">
-        <v>683</v>
-      </c>
-      <c r="E139" s="78" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="63" t="s">
-        <v>685</v>
-      </c>
-      <c r="B140" s="64" t="s">
-        <v>686</v>
-      </c>
-      <c r="C140" s="78" t="s">
-        <v>687</v>
-      </c>
-      <c r="D140" s="65" t="s">
-        <v>688</v>
-      </c>
-      <c r="E140" s="78" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="63" t="s">
-        <v>690</v>
-      </c>
-      <c r="B141" s="64" t="s">
-        <v>691</v>
-      </c>
-      <c r="C141" s="78" t="s">
-        <v>692</v>
-      </c>
-      <c r="D141" s="65" t="s">
-        <v>693</v>
-      </c>
-      <c r="E141" s="78" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="63" t="s">
-        <v>695</v>
-      </c>
-      <c r="B142" s="64" t="s">
-        <v>696</v>
-      </c>
-      <c r="C142" s="78" t="s">
-        <v>697</v>
-      </c>
-      <c r="D142" s="65" t="s">
-        <v>698</v>
-      </c>
-      <c r="E142" s="78" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="63" t="s">
-        <v>700</v>
-      </c>
-      <c r="B143" s="64" t="s">
-        <v>384</v>
-      </c>
-      <c r="C143" s="78" t="s">
-        <v>385</v>
-      </c>
-      <c r="D143" s="65" t="s">
-        <v>701</v>
-      </c>
-      <c r="E143" s="78" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="63" t="s">
-        <v>702</v>
-      </c>
-      <c r="B144" s="64" t="s">
-        <v>703</v>
-      </c>
-      <c r="C144" s="78" t="s">
-        <v>704</v>
-      </c>
-      <c r="D144" s="65" t="s">
-        <v>705</v>
-      </c>
-      <c r="E144" s="78" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="63" t="s">
-        <v>707</v>
-      </c>
-      <c r="B145" s="64" t="s">
-        <v>708</v>
-      </c>
-      <c r="C145" s="78" t="s">
-        <v>709</v>
-      </c>
-      <c r="D145" s="65" t="s">
-        <v>710</v>
-      </c>
-      <c r="E145" s="78" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="63" t="s">
-        <v>712</v>
-      </c>
-      <c r="B146" s="64" t="s">
-        <v>713</v>
-      </c>
-      <c r="C146" s="78" t="s">
-        <v>714</v>
-      </c>
-      <c r="D146" s="65" t="s">
-        <v>715</v>
-      </c>
-      <c r="E146" s="78" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="63" t="s">
-        <v>717</v>
-      </c>
-      <c r="B147" s="64" t="s">
-        <v>718</v>
-      </c>
-      <c r="C147" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="D147" s="65" t="s">
-        <v>719</v>
-      </c>
-      <c r="E147" s="78" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="63" t="s">
-        <v>721</v>
-      </c>
-      <c r="B148" s="64" t="s">
-        <v>722</v>
-      </c>
-      <c r="C148" s="78" t="s">
-        <v>723</v>
-      </c>
-      <c r="D148" s="65" t="s">
-        <v>724</v>
-      </c>
-      <c r="E148" s="78" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="66" t="s">
-        <v>726</v>
-      </c>
-      <c r="B149" s="67" t="s">
-        <v>727</v>
-      </c>
-      <c r="C149" s="78" t="s">
-        <v>220</v>
-      </c>
-      <c r="D149" s="68" t="s">
-        <v>728</v>
-      </c>
-      <c r="E149" s="78" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="66" t="s">
-        <v>730</v>
-      </c>
-      <c r="B150" s="67" t="s">
-        <v>731</v>
-      </c>
-      <c r="C150" s="78" t="s">
-        <v>732</v>
-      </c>
-      <c r="D150" s="68" t="s">
-        <v>733</v>
-      </c>
-      <c r="E150" s="78" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="66" t="s">
-        <v>735</v>
-      </c>
-      <c r="B151" s="67" t="s">
-        <v>736</v>
-      </c>
-      <c r="C151" s="78" t="s">
-        <v>737</v>
-      </c>
-      <c r="D151" s="68" t="s">
-        <v>738</v>
-      </c>
-      <c r="E151" s="78" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="66" t="s">
-        <v>740</v>
-      </c>
-      <c r="B152" s="67" t="s">
-        <v>741</v>
-      </c>
-      <c r="C152" s="78" t="s">
-        <v>742</v>
-      </c>
-      <c r="D152" s="68" t="s">
-        <v>743</v>
-      </c>
-      <c r="E152" s="78" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="66" t="s">
-        <v>745</v>
-      </c>
-      <c r="B153" s="67" t="s">
-        <v>746</v>
-      </c>
-      <c r="C153" s="78" t="s">
-        <v>747</v>
-      </c>
-      <c r="D153" s="68" t="s">
-        <v>748</v>
-      </c>
-      <c r="E153" s="78" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="66" t="s">
-        <v>750</v>
-      </c>
-      <c r="B154" s="67" t="s">
-        <v>751</v>
-      </c>
-      <c r="C154" s="78" t="s">
-        <v>752</v>
-      </c>
-      <c r="D154" s="68" t="s">
-        <v>753</v>
-      </c>
-      <c r="E154" s="78" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="66" t="s">
-        <v>755</v>
-      </c>
-      <c r="B155" s="67" t="s">
-        <v>756</v>
-      </c>
-      <c r="C155" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="D155" s="68" t="s">
-        <v>757</v>
-      </c>
-      <c r="E155" s="78" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="66" t="s">
-        <v>758</v>
-      </c>
-      <c r="B156" s="67" t="s">
-        <v>759</v>
-      </c>
-      <c r="C156" s="78" t="s">
-        <v>760</v>
-      </c>
-      <c r="D156" s="68" t="s">
-        <v>761</v>
-      </c>
-      <c r="E156" s="78" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="69" t="s">
-        <v>763</v>
-      </c>
-      <c r="B157" s="70" t="s">
-        <v>764</v>
-      </c>
-      <c r="C157" s="78" t="s">
-        <v>765</v>
-      </c>
-      <c r="D157" s="71" t="s">
-        <v>766</v>
-      </c>
-      <c r="E157" s="78" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="69" t="s">
-        <v>768</v>
-      </c>
-      <c r="B158" s="70" t="s">
-        <v>769</v>
-      </c>
-      <c r="C158" s="78" t="s">
-        <v>770</v>
-      </c>
-      <c r="D158" s="71" t="s">
-        <v>771</v>
-      </c>
-      <c r="E158" s="78" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="69" t="s">
-        <v>773</v>
-      </c>
-      <c r="B159" s="70" t="s">
-        <v>774</v>
-      </c>
-      <c r="C159" s="78" t="s">
-        <v>775</v>
-      </c>
-      <c r="D159" s="71" t="s">
-        <v>776</v>
-      </c>
-      <c r="E159" s="78" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="69" t="s">
-        <v>778</v>
-      </c>
-      <c r="B160" s="70" t="s">
-        <v>779</v>
-      </c>
-      <c r="C160" s="78" t="s">
-        <v>780</v>
-      </c>
-      <c r="D160" s="71" t="s">
-        <v>781</v>
-      </c>
-      <c r="E160" s="78" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="69" t="s">
-        <v>783</v>
-      </c>
-      <c r="B161" s="70" t="s">
-        <v>784</v>
-      </c>
-      <c r="C161" s="78" t="s">
-        <v>785</v>
-      </c>
-      <c r="D161" s="71" t="s">
-        <v>786</v>
-      </c>
-      <c r="E161" s="78" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="69" t="s">
-        <v>788</v>
-      </c>
-      <c r="B162" s="70" t="s">
-        <v>789</v>
-      </c>
-      <c r="C162" s="78" t="s">
-        <v>790</v>
-      </c>
-      <c r="D162" s="71" t="s">
-        <v>791</v>
-      </c>
-      <c r="E162" s="78" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="72" t="s">
-        <v>793</v>
-      </c>
-      <c r="B163" s="73" t="s">
-        <v>794</v>
-      </c>
-      <c r="C163" s="78" t="s">
-        <v>795</v>
-      </c>
-      <c r="D163" s="74" t="s">
-        <v>796</v>
-      </c>
-      <c r="E163" s="78" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="72" t="s">
-        <v>798</v>
-      </c>
-      <c r="B164" s="73" t="s">
-        <v>799</v>
-      </c>
-      <c r="C164" s="78" t="s">
-        <v>800</v>
-      </c>
-      <c r="D164" s="74" t="s">
-        <v>801</v>
-      </c>
-      <c r="E164" s="78" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="72" t="s">
-        <v>803</v>
-      </c>
-      <c r="B165" s="73" t="s">
-        <v>804</v>
-      </c>
-      <c r="C165" s="78" t="s">
-        <v>805</v>
-      </c>
-      <c r="D165" s="74" t="s">
-        <v>806</v>
-      </c>
-      <c r="E165" s="78" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="72" t="s">
-        <v>808</v>
-      </c>
-      <c r="B166" s="73" t="s">
-        <v>809</v>
-      </c>
-      <c r="C166" s="78" t="s">
-        <v>810</v>
-      </c>
-      <c r="D166" s="74" t="s">
-        <v>811</v>
-      </c>
-      <c r="E166" s="78" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="72" t="s">
-        <v>813</v>
-      </c>
-      <c r="B167" s="73" t="s">
-        <v>814</v>
-      </c>
-      <c r="C167" s="78" t="s">
-        <v>530</v>
-      </c>
-      <c r="D167" s="74" t="s">
-        <v>815</v>
-      </c>
-      <c r="E167" s="78" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="72" t="s">
-        <v>816</v>
-      </c>
-      <c r="B168" s="73" t="s">
-        <v>817</v>
-      </c>
-      <c r="C168" s="78" t="s">
-        <v>818</v>
-      </c>
-      <c r="D168" s="74" t="s">
-        <v>819</v>
-      </c>
-      <c r="E168" s="78" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="63" t="s">
-        <v>821</v>
-      </c>
-      <c r="B169" s="64" t="s">
-        <v>419</v>
-      </c>
-      <c r="C169" s="78" t="s">
-        <v>420</v>
-      </c>
-      <c r="D169" s="65" t="s">
-        <v>822</v>
-      </c>
-      <c r="E169" s="78" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="63" t="s">
-        <v>824</v>
-      </c>
-      <c r="B170" s="64" t="s">
-        <v>424</v>
-      </c>
-      <c r="C170" s="78" t="s">
-        <v>425</v>
-      </c>
-      <c r="D170" s="65" t="s">
-        <v>825</v>
-      </c>
-      <c r="E170" s="78" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="63" t="s">
-        <v>826</v>
-      </c>
-      <c r="B171" s="64" t="s">
-        <v>827</v>
-      </c>
-      <c r="C171" s="78" t="s">
-        <v>828</v>
-      </c>
-      <c r="D171" s="65" t="s">
-        <v>829</v>
-      </c>
-      <c r="E171" s="78" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="63" t="s">
-        <v>831</v>
-      </c>
-      <c r="B172" s="64" t="s">
-        <v>434</v>
-      </c>
-      <c r="C172" s="78" t="s">
-        <v>435</v>
-      </c>
-      <c r="D172" s="65" t="s">
-        <v>832</v>
-      </c>
-      <c r="E172" s="78" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="63" t="s">
-        <v>833</v>
-      </c>
-      <c r="B173" s="64" t="s">
-        <v>834</v>
-      </c>
-      <c r="C173" s="78" t="s">
-        <v>835</v>
-      </c>
-      <c r="D173" s="65" t="s">
-        <v>836</v>
-      </c>
-      <c r="E173" s="78" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="63" t="s">
-        <v>838</v>
-      </c>
-      <c r="B174" s="64" t="s">
-        <v>839</v>
-      </c>
-      <c r="C174" s="78" t="s">
-        <v>840</v>
-      </c>
-      <c r="D174" s="65" t="s">
-        <v>841</v>
-      </c>
-      <c r="E174" s="78" t="s">
-        <v>842</v>
-      </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>